--- a/Labels_it.xlsx
+++ b/Labels_it.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelodambrosio1/Dropbox/Igiene Torino/Candiolo/Progetti/Indagini Igienico Ambientali/QRed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelodambrosio1/Dropbox/Igiene Torino/Candiolo/Progetti/Indagini Igienico Ambientali/Q-RED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02E48A-1D5F-2342-A5F2-DF8A9794E218}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7B5968-0E51-4D44-8FFA-0676CAF3714E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2720" windowWidth="28040" windowHeight="17440" xr2:uid="{9343935C-C108-AD4B-94A9-341054E49E11}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>Label</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>Var (non modificare)</t>
+  </si>
+  <si>
+    <t>context.sel.text</t>
+  </si>
+  <si>
+    <t>Seleziona il reparto</t>
+  </si>
+  <si>
+    <t>Etichette di interfaccia:</t>
   </si>
 </sst>
 </file>
@@ -611,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5628B02E-DC43-2F4B-9AD4-31E72043E2C7}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,21 +756,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -769,10 +778,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -780,10 +789,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -791,10 +800,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -802,10 +811,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -813,21 +822,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -835,21 +844,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
@@ -857,32 +866,32 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -890,10 +899,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -901,45 +910,56 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Labels_it.xlsx
+++ b/Labels_it.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelodambrosio1/Dropbox/Igiene Torino/Candiolo/Progetti/Indagini Igienico Ambientali/Q-RED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7B5968-0E51-4D44-8FFA-0676CAF3714E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C76F74-B7A3-D84F-9F40-E5D7953E9413}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2720" windowWidth="28040" windowHeight="17440" xr2:uid="{9343935C-C108-AD4B-94A9-341054E49E11}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Label</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>Etichette di interfaccia:</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Giorno</t>
   </si>
 </sst>
 </file>
@@ -302,10 +308,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -620,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5628B02E-DC43-2F4B-9AD4-31E72043E2C7}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A12:C12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,21 +688,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -701,54 +710,54 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
@@ -756,32 +765,32 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -789,10 +798,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -800,10 +809,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -811,10 +820,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -822,10 +831,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -833,21 +842,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>56</v>
@@ -855,21 +864,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
@@ -877,32 +886,32 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -910,10 +919,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>47</v>
@@ -921,45 +930,56 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>61</v>
       </c>
     </row>
